--- a/report.xlsx
+++ b/report.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,10 +474,31 @@
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45440</v>
+        <v>45449</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3423611111111111</v>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10-b</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Odilbek Xudoyberganov</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>45449</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.3048611111111111</v>
       </c>
     </row>
   </sheetData>
